--- a/output/output_directencoding_cadical.xlsx
+++ b/output/output_directencoding_cadical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8">
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="11">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.13</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="14">
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="15">
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.88</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="17">
@@ -1079,1151 +1079,2002 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A-pores_1.mtx.rnd</t>
+          <t>F-curtis54.mtx.rnd</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G18" t="n">
         <v>7</v>
       </c>
-      <c r="G18" t="n">
-        <v>4</v>
-      </c>
       <c r="H18" t="n">
-        <v>1352</v>
+        <v>3512</v>
       </c>
       <c r="I18" t="n">
-        <v>17327</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>53205</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B-ibm32.mtx.rnd</t>
+          <t>F-curtis54.mtx.rnd</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>1122</v>
+        <v>3512</v>
       </c>
       <c r="I19" t="n">
-        <v>14412</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>59653</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="n">
-        <v>0.42</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C-bcspwr01.mtx.rnd</t>
+          <t>F-curtis54.mtx.rnd</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>1601</v>
+        <v>3512</v>
       </c>
       <c r="I20" t="n">
-        <v>14254</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>65853</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D-bcsstk01.mtx.rnd</t>
+          <t>G-will57.mtx.rnd</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>2738</v>
+        <v>3479</v>
       </c>
       <c r="I21" t="n">
-        <v>37648</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>44658</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>E-bcspwr02.mtx.rnd</t>
+          <t>G-will57.mtx.rnd</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>3383</v>
+        <v>3479</v>
       </c>
       <c r="I22" t="n">
-        <v>52493</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>51008</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A-pores_1.mtx.rnd</t>
+          <t>G-will57.mtx.rnd</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H23" t="n">
-        <v>1352</v>
+        <v>3479</v>
       </c>
       <c r="I23" t="n">
-        <v>17350</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>57104</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="n">
-        <v>0.15</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B-ibm32.mtx.rnd</t>
+          <t>H-impcol_b.mtx.rnd</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D24" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>1122</v>
+        <v>4309</v>
       </c>
       <c r="I24" t="n">
-        <v>14430</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>94362</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="n">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C-bcspwr01.mtx.rnd</t>
+          <t>H-impcol_b.mtx.rnd</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D25" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
         <v>8</v>
       </c>
-      <c r="F25" t="n">
-        <v>17</v>
-      </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>1601</v>
+        <v>4309</v>
       </c>
       <c r="I25" t="n">
-        <v>14275</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>112346</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="n">
-        <v>0.11</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D-bcsstk01.mtx.rnd</t>
+          <t>I-ash85.mtx.rnd</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>2738</v>
+        <v>11307</v>
       </c>
       <c r="I26" t="n">
-        <v>37677</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>396424</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="n">
-        <v>0.13</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E-bcspwr02.mtx.rnd</t>
+          <t>I-ash85.mtx.rnd</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D27" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" t="n">
-        <v>3383</v>
+        <v>11307</v>
       </c>
       <c r="I27" t="n">
-        <v>52528</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>419200</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="n">
-        <v>0.18</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A-pores_1.mtx.rnd</t>
+          <t>I-ash85.mtx.rnd</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D28" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H28" t="n">
-        <v>1352</v>
+        <v>11307</v>
       </c>
       <c r="I28" t="n">
-        <v>17350</v>
+        <v>441538</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A-pores_1.mtx.rnd</t>
+          <t>I-ash85.mtx.rnd</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D29" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H29" t="n">
-        <v>1352</v>
+        <v>11307</v>
       </c>
       <c r="I29" t="n">
-        <v>21264</v>
+        <v>463438</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A-pores_1.mtx.rnd</t>
+          <t>I-ash85.mtx.rnd</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C30" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D30" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
-        <v>1352</v>
+        <v>11307</v>
       </c>
       <c r="I30" t="n">
-        <v>24972</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+        <v>484900</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>0.25</v>
+        <v>1759.95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B-ibm32.mtx.rnd</t>
+          <t>J-nos4.mtx.rnd</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D31" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H31" t="n">
-        <v>1122</v>
+        <v>11102</v>
       </c>
       <c r="I31" t="n">
-        <v>14430</v>
+        <v>405828</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0.15</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B-ibm32.mtx.rnd</t>
+          <t>J-nos4.mtx.rnd</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C32" t="n">
+        <v>56</v>
+      </c>
+      <c r="D32" t="n">
+        <v>56</v>
+      </c>
+      <c r="E32" t="n">
+        <v>17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>36</v>
+      </c>
+      <c r="G32" t="n">
         <v>18</v>
       </c>
-      <c r="D32" t="n">
-        <v>57</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6</v>
-      </c>
       <c r="H32" t="n">
-        <v>1122</v>
+        <v>11102</v>
       </c>
       <c r="I32" t="n">
-        <v>16770</v>
+        <v>425094</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.13</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C-bcspwr01.mtx.rnd</t>
+          <t>J-nos4.mtx.rnd</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C33" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D33" t="n">
         <v>56</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H33" t="n">
-        <v>1601</v>
+        <v>11102</v>
       </c>
       <c r="I33" t="n">
-        <v>14275</v>
+        <v>443866</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0.09</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C-bcspwr01.mtx.rnd</t>
+          <t>J-nos4.mtx.rnd</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C34" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D34" t="n">
         <v>56</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H34" t="n">
-        <v>1601</v>
+        <v>11102</v>
       </c>
       <c r="I34" t="n">
-        <v>15471</v>
+        <v>462144</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0.09</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C-bcspwr01.mtx.rnd</t>
+          <t>J-nos4.mtx.rnd</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D35" t="n">
         <v>56</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G35" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H35" t="n">
-        <v>1601</v>
+        <v>11102</v>
       </c>
       <c r="I35" t="n">
-        <v>16575</v>
+        <v>479928</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C-bcspwr01.mtx.rnd</t>
+          <t>J-nos4.mtx.rnd</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D36" t="n">
         <v>56</v>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G36" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H36" t="n">
-        <v>1601</v>
+        <v>11102</v>
       </c>
       <c r="I36" t="n">
-        <v>17587</v>
+        <v>497218</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1</v>
+        <v>428.68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D-bcsstk01.mtx.rnd</t>
+          <t>K-dwt__234.mtx.rnd</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D37" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H37" t="n">
-        <v>2738</v>
+        <v>18605</v>
       </c>
       <c r="I37" t="n">
-        <v>37677</v>
+        <v>667709</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.13</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D-bcsstk01.mtx.rnd</t>
+          <t>K-dwt__234.mtx.rnd</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C38" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D38" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H38" t="n">
-        <v>2738</v>
+        <v>18605</v>
       </c>
       <c r="I38" t="n">
-        <v>46477</v>
+        <v>683585</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.17</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D-bcsstk01.mtx.rnd</t>
+          <t>K-dwt__234.mtx.rnd</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C39" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D39" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H39" t="n">
-        <v>2738</v>
+        <v>18605</v>
       </c>
       <c r="I39" t="n">
-        <v>54925</v>
+        <v>699137</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.48</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>E-bcspwr02.mtx.rnd</t>
+          <t>K-dwt__234.mtx.rnd</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C40" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D40" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E40" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G40" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H40" t="n">
-        <v>3383</v>
+        <v>18605</v>
       </c>
       <c r="I40" t="n">
-        <v>52528</v>
+        <v>714365</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.15</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>E-bcspwr02.mtx.rnd</t>
+          <t>K-dwt__234.mtx.rnd</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C41" t="n">
+        <v>80</v>
+      </c>
+      <c r="D41" t="n">
+        <v>69</v>
+      </c>
+      <c r="E41" t="n">
+        <v>31</v>
+      </c>
+      <c r="F41" t="n">
+        <v>51</v>
+      </c>
+      <c r="G41" t="n">
         <v>35</v>
       </c>
-      <c r="D41" t="n">
-        <v>72</v>
-      </c>
-      <c r="E41" t="n">
-        <v>15</v>
-      </c>
-      <c r="F41" t="n">
-        <v>22</v>
-      </c>
-      <c r="G41" t="n">
-        <v>16</v>
-      </c>
       <c r="H41" t="n">
-        <v>3383</v>
+        <v>18605</v>
       </c>
       <c r="I41" t="n">
-        <v>54888</v>
+        <v>729269</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0.19</v>
+        <v>134.85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>E-bcspwr02.mtx.rnd</t>
+          <t>K-dwt__234.mtx.rnd</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D42" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G42" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H42" t="n">
-        <v>3383</v>
+        <v>18605</v>
       </c>
       <c r="I42" t="n">
-        <v>57130</v>
+        <v>743849</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>1.16</v>
+        <v>40.55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>E-bcspwr02.mtx.rnd</t>
+          <t>K-dwt__234.mtx.rnd</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C43" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D43" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F43" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G43" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H43" t="n">
-        <v>3383</v>
+        <v>18605</v>
       </c>
       <c r="I43" t="n">
-        <v>59254</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+        <v>758105</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>0.17</v>
+        <v>1584.91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A-pores_1.mtx.rnd</t>
+          <t>L-bcspwr03.mtx.rnd</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D44" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F44" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H44" t="n">
-        <v>691</v>
+        <v>14516</v>
       </c>
       <c r="I44" t="n">
-        <v>15370</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>386458</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="n">
-        <v>0.1</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B-ibm32.mtx.rnd</t>
+          <t>L-bcspwr03.mtx.rnd</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C45" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D45" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F45" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H45" t="n">
-        <v>577</v>
+        <v>14516</v>
       </c>
       <c r="I45" t="n">
-        <v>12798</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>401494</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
-        <v>0.09</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C-bcspwr01.mtx.rnd</t>
+          <t>M-bcsstk06.mtx.rnd</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="C46" t="n">
+        <v>323</v>
+      </c>
+      <c r="D46" t="n">
+        <v>77</v>
+      </c>
+      <c r="E46" t="n">
         <v>21</v>
       </c>
-      <c r="D46" t="n">
-        <v>56</v>
-      </c>
-      <c r="E46" t="n">
-        <v>8</v>
-      </c>
       <c r="F46" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H46" t="n">
-        <v>820</v>
+        <v>270902</v>
       </c>
       <c r="I46" t="n">
-        <v>11935</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>48107603</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="n">
-        <v>0.09</v>
+        <v>1743.66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D-bcsstk01.mtx.rnd</t>
+          <t>M-bcsstk06.mtx.rnd</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>48</v>
+        <v>420</v>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>323</v>
       </c>
       <c r="D47" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F47" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1393</v>
-      </c>
-      <c r="I47" t="n">
-        <v>33645</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>0.12</v>
+        <v>58.45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>E-bcspwr02.mtx.rnd</t>
+          <t>O-impcol_d.mtx.rnd</t>
         </is>
       </c>
       <c r="B48" t="n">
+        <v>425</v>
+      </c>
+      <c r="C48" t="n">
+        <v>221</v>
+      </c>
+      <c r="D48" t="n">
+        <v>52</v>
+      </c>
+      <c r="E48" t="n">
+        <v>47</v>
+      </c>
+      <c r="F48" t="n">
+        <v>102</v>
+      </c>
+      <c r="G48" t="n">
+        <v>47</v>
+      </c>
+      <c r="H48" t="n">
+        <v>187427</v>
+      </c>
+      <c r="I48" t="n">
+        <v>23582118</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>133.07</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>O-impcol_d.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>425</v>
+      </c>
+      <c r="C49" t="n">
+        <v>221</v>
+      </c>
+      <c r="D49" t="n">
+        <v>52</v>
+      </c>
+      <c r="E49" t="n">
+        <v>47</v>
+      </c>
+      <c r="F49" t="n">
+        <v>102</v>
+      </c>
+      <c r="G49" t="n">
+        <v>48</v>
+      </c>
+      <c r="H49" t="n">
+        <v>187427</v>
+      </c>
+      <c r="I49" t="n">
+        <v>24023034</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>90.11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>O-impcol_d.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>425</v>
+      </c>
+      <c r="C50" t="n">
+        <v>221</v>
+      </c>
+      <c r="D50" t="n">
+        <v>52</v>
+      </c>
+      <c r="E50" t="n">
+        <v>47</v>
+      </c>
+      <c r="F50" t="n">
+        <v>102</v>
+      </c>
+      <c r="G50" t="n">
         <v>49</v>
       </c>
-      <c r="C48" t="n">
-        <v>35</v>
-      </c>
-      <c r="D48" t="n">
-        <v>72</v>
-      </c>
-      <c r="E48" t="n">
-        <v>15</v>
-      </c>
-      <c r="F48" t="n">
-        <v>22</v>
-      </c>
-      <c r="G48" t="n">
-        <v>15</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1716</v>
-      </c>
-      <c r="I48" t="n">
-        <v>47530</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>187427</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24461416</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>O-impcol_d.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>425</v>
+      </c>
+      <c r="C51" t="n">
+        <v>221</v>
+      </c>
+      <c r="D51" t="n">
+        <v>52</v>
+      </c>
+      <c r="E51" t="n">
+        <v>47</v>
+      </c>
+      <c r="F51" t="n">
+        <v>102</v>
+      </c>
+      <c r="G51" t="n">
+        <v>50</v>
+      </c>
+      <c r="H51" t="n">
+        <v>187427</v>
+      </c>
+      <c r="I51" t="n">
+        <v>24897264</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>165.09</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>O-impcol_d.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>425</v>
+      </c>
+      <c r="C52" t="n">
+        <v>221</v>
+      </c>
+      <c r="D52" t="n">
+        <v>52</v>
+      </c>
+      <c r="E52" t="n">
+        <v>47</v>
+      </c>
+      <c r="F52" t="n">
+        <v>102</v>
+      </c>
+      <c r="G52" t="n">
+        <v>51</v>
+      </c>
+      <c r="H52" t="n">
+        <v>187427</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25330578</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>167.05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>O-impcol_d.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>425</v>
+      </c>
+      <c r="C53" t="n">
+        <v>221</v>
+      </c>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="n">
+        <v>47</v>
+      </c>
+      <c r="F53" t="n">
+        <v>102</v>
+      </c>
+      <c r="G53" t="n">
+        <v>52</v>
+      </c>
+      <c r="H53" t="n">
+        <v>187427</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25761358</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>149.79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>O-impcol_d.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>425</v>
+      </c>
+      <c r="C54" t="n">
+        <v>221</v>
+      </c>
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>47</v>
+      </c>
+      <c r="F54" t="n">
+        <v>102</v>
+      </c>
+      <c r="G54" t="n">
+        <v>53</v>
+      </c>
+      <c r="H54" t="n">
+        <v>187427</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26189604</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>126.57</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>O-impcol_d.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>425</v>
+      </c>
+      <c r="C55" t="n">
+        <v>221</v>
+      </c>
+      <c r="D55" t="n">
+        <v>52</v>
+      </c>
+      <c r="E55" t="n">
+        <v>47</v>
+      </c>
+      <c r="F55" t="n">
+        <v>102</v>
+      </c>
+      <c r="G55" t="n">
+        <v>54</v>
+      </c>
+      <c r="H55" t="n">
+        <v>187427</v>
+      </c>
+      <c r="I55" t="n">
+        <v>26615316</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>230.55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>O-impcol_d.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>425</v>
+      </c>
+      <c r="C56" t="n">
+        <v>221</v>
+      </c>
+      <c r="D56" t="n">
+        <v>52</v>
+      </c>
+      <c r="E56" t="n">
+        <v>47</v>
+      </c>
+      <c r="F56" t="n">
+        <v>102</v>
+      </c>
+      <c r="G56" t="n">
+        <v>55</v>
+      </c>
+      <c r="H56" t="n">
+        <v>187427</v>
+      </c>
+      <c r="I56" t="n">
+        <v>27038494</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>185.78</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>O-impcol_d.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>425</v>
+      </c>
+      <c r="C57" t="n">
+        <v>221</v>
+      </c>
+      <c r="D57" t="n">
+        <v>52</v>
+      </c>
+      <c r="E57" t="n">
+        <v>47</v>
+      </c>
+      <c r="F57" t="n">
+        <v>102</v>
+      </c>
+      <c r="G57" t="n">
+        <v>56</v>
+      </c>
+      <c r="H57" t="n">
+        <v>187427</v>
+      </c>
+      <c r="I57" t="n">
+        <v>27459138</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>340.78</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>P-can__445.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>445</v>
+      </c>
+      <c r="C58" t="n">
+        <v>333</v>
+      </c>
+      <c r="D58" t="n">
+        <v>75</v>
+      </c>
+      <c r="E58" t="n">
+        <v>58</v>
+      </c>
+      <c r="F58" t="n">
+        <v>79</v>
+      </c>
+      <c r="G58" t="n">
+        <v>58</v>
+      </c>
+      <c r="H58" t="n">
+        <v>295927</v>
+      </c>
+      <c r="I58" t="n">
+        <v>59295051</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1800.65</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Q-494_bus.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>494</v>
+      </c>
+      <c r="C59" t="n">
+        <v>326</v>
+      </c>
+      <c r="D59" t="n">
+        <v>66</v>
+      </c>
+      <c r="E59" t="n">
+        <v>144</v>
+      </c>
+      <c r="F59" t="n">
+        <v>220</v>
+      </c>
+      <c r="G59" t="n">
+        <v>144</v>
+      </c>
+      <c r="H59" t="n">
+        <v>321596</v>
+      </c>
+      <c r="I59" t="n">
+        <v>43242396</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1800.54</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>R-dwt__503.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>503</v>
+      </c>
+      <c r="C60" t="n">
+        <v>347</v>
+      </c>
+      <c r="D60" t="n">
+        <v>69</v>
+      </c>
+      <c r="E60" t="n">
+        <v>31</v>
+      </c>
+      <c r="F60" t="n">
+        <v>64</v>
+      </c>
+      <c r="G60" t="n">
+        <v>31</v>
+      </c>
+      <c r="H60" t="n">
+        <v>348581</v>
+      </c>
+      <c r="I60" t="n">
+        <v>56417055</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>582.37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>R-dwt__503.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>503</v>
+      </c>
+      <c r="C61" t="n">
+        <v>347</v>
+      </c>
+      <c r="D61" t="n">
+        <v>69</v>
+      </c>
+      <c r="E61" t="n">
+        <v>31</v>
+      </c>
+      <c r="F61" t="n">
+        <v>64</v>
+      </c>
+      <c r="G61" t="n">
+        <v>32</v>
+      </c>
+      <c r="H61" t="n">
+        <v>348581</v>
+      </c>
+      <c r="I61" t="n">
+        <v>58162639</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>335.02</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>R-dwt__503.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>503</v>
+      </c>
+      <c r="C62" t="n">
+        <v>347</v>
+      </c>
+      <c r="D62" t="n">
+        <v>69</v>
+      </c>
+      <c r="E62" t="n">
+        <v>31</v>
+      </c>
+      <c r="F62" t="n">
+        <v>64</v>
+      </c>
+      <c r="G62" t="n">
+        <v>33</v>
+      </c>
+      <c r="H62" t="n">
+        <v>348581</v>
+      </c>
+      <c r="I62" t="n">
+        <v>59902699</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>514.86</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>R-dwt__503.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>503</v>
+      </c>
+      <c r="C63" t="n">
+        <v>347</v>
+      </c>
+      <c r="D63" t="n">
+        <v>69</v>
+      </c>
+      <c r="E63" t="n">
+        <v>31</v>
+      </c>
+      <c r="F63" t="n">
+        <v>64</v>
+      </c>
+      <c r="G63" t="n">
+        <v>34</v>
+      </c>
+      <c r="H63" t="n">
+        <v>348581</v>
+      </c>
+      <c r="I63" t="n">
+        <v>61637235</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>368.45</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>S-sherman4.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>546</v>
+      </c>
+      <c r="C64" t="n">
+        <v>322</v>
+      </c>
+      <c r="D64" t="n">
+        <v>59</v>
+      </c>
+      <c r="E64" t="n">
+        <v>151</v>
+      </c>
+      <c r="F64" t="n">
+        <v>256</v>
+      </c>
+      <c r="G64" t="n">
+        <v>151</v>
+      </c>
+      <c r="H64" t="n">
+        <v>351080</v>
+      </c>
+      <c r="I64" t="n">
+        <v>100124872</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1800.97</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>T-dwt__592.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>592</v>
+      </c>
+      <c r="C65" t="n">
+        <v>378</v>
+      </c>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="n">
+        <v>65</v>
+      </c>
+      <c r="F65" t="n">
+        <v>104</v>
+      </c>
+      <c r="G65" t="n">
+        <v>65</v>
+      </c>
+      <c r="H65" t="n">
+        <v>446962</v>
+      </c>
+      <c r="I65" t="n">
+        <v>101292042</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1800.81</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>U-662_bus.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>662</v>
+      </c>
+      <c r="C66" t="n">
+        <v>516</v>
+      </c>
+      <c r="D66" t="n">
+        <v>78</v>
+      </c>
+      <c r="E66" t="n">
+        <v>170</v>
+      </c>
+      <c r="F66" t="n">
+        <v>220</v>
+      </c>
+      <c r="G66" t="n">
+        <v>170</v>
+      </c>
+      <c r="H66" t="n">
+        <v>682524</v>
+      </c>
+      <c r="I66" t="n">
+        <v>133475070</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1801.23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>V-nos6.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>675</v>
+      </c>
+      <c r="C67" t="n">
+        <v>405</v>
+      </c>
+      <c r="D67" t="n">
+        <v>60</v>
+      </c>
+      <c r="E67" t="n">
+        <v>195</v>
+      </c>
+      <c r="F67" t="n">
+        <v>326</v>
+      </c>
+      <c r="G67" t="n">
+        <v>195</v>
+      </c>
+      <c r="H67" t="n">
+        <v>546077</v>
+      </c>
+      <c r="I67" t="n">
+        <v>155250855</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1803.85</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>W-685_bus.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>685</v>
+      </c>
+      <c r="C68" t="n">
+        <v>397</v>
+      </c>
+      <c r="D68" t="n">
+        <v>58</v>
+      </c>
+      <c r="E68" t="n">
+        <v>78</v>
+      </c>
+      <c r="F68" t="n">
+        <v>136</v>
+      </c>
+      <c r="G68" t="n">
+        <v>78</v>
+      </c>
+      <c r="H68" t="n">
+        <v>543207</v>
+      </c>
+      <c r="I68" t="n">
+        <v>72002355</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>515.77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>W-685_bus.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>685</v>
+      </c>
+      <c r="C69" t="n">
+        <v>397</v>
+      </c>
+      <c r="D69" t="n">
+        <v>58</v>
+      </c>
+      <c r="E69" t="n">
+        <v>78</v>
+      </c>
+      <c r="F69" t="n">
+        <v>136</v>
+      </c>
+      <c r="G69" t="n">
+        <v>79</v>
+      </c>
+      <c r="H69" t="n">
+        <v>543207</v>
+      </c>
+      <c r="I69" t="n">
+        <v>72820271</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>520.02</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>W-685_bus.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>685</v>
+      </c>
+      <c r="C70" t="n">
+        <v>397</v>
+      </c>
+      <c r="D70" t="n">
+        <v>58</v>
+      </c>
+      <c r="E70" t="n">
+        <v>78</v>
+      </c>
+      <c r="F70" t="n">
+        <v>136</v>
+      </c>
+      <c r="G70" t="n">
+        <v>80</v>
+      </c>
+      <c r="H70" t="n">
+        <v>543207</v>
+      </c>
+      <c r="I70" t="n">
+        <v>73635623</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>765.05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>X-can__715.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>715</v>
+      </c>
+      <c r="C71" t="n">
+        <v>500</v>
+      </c>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="n">
+        <v>78</v>
+      </c>
+      <c r="F71" t="n">
+        <v>113</v>
+      </c>
+      <c r="G71" t="n">
+        <v>78</v>
+      </c>
+      <c r="H71" t="n">
+        <v>714287</v>
+      </c>
+      <c r="I71" t="n">
+        <v>213765505</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1803.21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
